--- a/sputnik/personal/ee/3ee.xlsx
+++ b/sputnik/personal/ee/3ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,35 +24,47 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">К оплате </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
     <t>Показания на день оплаты</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,10 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -124,7 +135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -193,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,10 +236,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -436,329 +445,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F12:F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43211</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="3">
+        <v>43386</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>847</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="2">
+        <v>1046</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>203</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="2">
+        <v>238</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43302</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="3">
+        <v>43641</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>976</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>129</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>553.41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="2">
+        <v>1148</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
+        <v>102</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>466.14000000000004</v>
+      </c>
+      <c r="G4" s="5">
+        <f>SUM(F4,F5)</f>
+        <v>504.38000000000005</v>
+      </c>
+      <c r="H4" s="5">
+        <v>508.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>224</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>45.57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43386</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1045</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>310.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>238</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43641</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1148</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>470.71000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="C5" s="2">
         <v>254</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E5" s="7">
         <v>2.39</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>38.24</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="G5" s="2"/>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
         <v>43759</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C6" s="2">
         <v>1300</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E6" s="7">
         <v>4.49</v>
       </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
         <v>682.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="G6" s="5">
+        <f>SUM(F6,F7)</f>
+        <v>762.67000000000007</v>
+      </c>
+      <c r="H6" s="5">
+        <v>762.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C7" s="2">
         <v>287</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E7" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
         <v>80.190000000000012</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
         <v>43853</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C8" s="2">
         <v>1400</v>
       </c>
-      <c r="D12" s="3">
-        <f>C12-C10</f>
+      <c r="D8" s="2">
+        <f>C8-C6</f>
         <v>100</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E8" s="7">
         <v>4.49</v>
       </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
         <v>449</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="G8" s="5">
+        <f>SUM(F8,F9)</f>
+        <v>497.6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>496.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C9" s="2">
         <v>307</v>
       </c>
-      <c r="D13" s="3">
-        <f>C13-C11</f>
+      <c r="D9" s="2">
+        <f>C9-C7</f>
         <v>20</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E9" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
         <v>48.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(G2,G4,G6,G8)</f>
+        <v>1764.65</v>
+      </c>
+      <c r="H10" s="5">
+        <f>SUM(H2,H4,H6,H8)</f>
+        <v>1768.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <f>SUM(H10,-G10)</f>
+        <v>3.5999999999999091</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -768,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -782,12 +736,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/3ee.xlsx
+++ b/sputnik/personal/ee/3ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -60,11 +60,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +236,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -445,7 +447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -455,7 +457,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -470,7 +472,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -496,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43386</v>
       </c>
@@ -512,7 +514,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -526,7 +528,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43641</v>
       </c>
@@ -555,7 +557,7 @@
         <v>508.95</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -579,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43759</v>
       </c>
@@ -608,7 +610,7 @@
         <v>762.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -630,7 +632,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43853</v>
       </c>
@@ -659,7 +661,7 @@
         <v>496.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -681,7 +683,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -699,7 +701,7 @@
         <v>1768.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -722,12 +724,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -736,12 +738,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/3ee.xlsx
+++ b/sputnik/personal/ee/3ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -451,10 +451,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,36 +684,87 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>44011</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1550</v>
+      </c>
+      <c r="D10" s="2">
+        <f>C10-C8</f>
+        <v>150</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
+        <v>673.5</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(F10,F11)</f>
+        <v>770.7</v>
+      </c>
+      <c r="H10" s="5">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>347</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11-C9</f>
+        <v>40</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>97.2</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5">
-        <f>SUM(G2,G4,G6,G8)</f>
-        <v>1764.65</v>
-      </c>
-      <c r="H10" s="5">
-        <f>SUM(H2,H4,H6,H8)</f>
-        <v>1768.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
+      <c r="G12" s="5">
+        <f>SUM(G2:G11)</f>
+        <v>2535.3500000000004</v>
+      </c>
+      <c r="H12" s="5">
+        <f>SUM(H2:H11)</f>
+        <v>2535.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <f>SUM(H10,-G10)</f>
-        <v>3.5999999999999091</v>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <f>SUM(H12,-G12)</f>
+        <v>-0.1000000000003638</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/3ee.xlsx
+++ b/sputnik/personal/ee/3ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -451,10 +451,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F13" si="2">D6*E6</f>
         <v>682.48</v>
       </c>
       <c r="G6" s="5">
@@ -626,7 +626,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>80.190000000000012</v>
       </c>
       <c r="G7" s="2"/>
@@ -650,7 +650,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="G8" s="5">
@@ -677,7 +677,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>48.6</v>
       </c>
       <c r="G9" s="2"/>
@@ -701,7 +701,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
         <v>673.5</v>
       </c>
       <c r="G10" s="5">
@@ -728,42 +728,93 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="3"/>
         <v>97.2</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="3">
+        <v>44076</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1700</v>
+      </c>
+      <c r="D12" s="2">
+        <f>C12-C10</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>706.5</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(F12,F13)</f>
+        <v>821.25</v>
+      </c>
+      <c r="H12" s="5">
+        <v>821.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>392</v>
+      </c>
+      <c r="D13" s="2">
+        <f>C13-C11</f>
+        <v>45</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>114.74999999999999</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="5">
-        <f>SUM(G2:G11)</f>
-        <v>2535.3500000000004</v>
-      </c>
-      <c r="H12" s="5">
-        <f>SUM(H2:H11)</f>
-        <v>2535.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
+      <c r="G14" s="5">
+        <f>SUM(G2:G13)</f>
+        <v>3356.6000000000004</v>
+      </c>
+      <c r="H14" s="5">
+        <f>SUM(H2:H13)</f>
+        <v>3356.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <f>SUM(H14,-G14)</f>
         <v>-0.1000000000003638</v>
       </c>
     </row>

--- a/sputnik/personal/ee/3ee.xlsx
+++ b/sputnik/personal/ee/3ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 18.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,14 +526,14 @@
         <v>347</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D9" si="0">C5-C3</f>
+        <f t="shared" ref="D5:D7" si="0">C5-C3</f>
         <v>40</v>
       </c>
       <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F9" si="1">D5*E5</f>
+        <f t="shared" ref="F5:F7" si="1">D5*E5</f>
         <v>97.2</v>
       </c>
       <c r="G5" s="8"/>
@@ -591,22 +591,53 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="4">
+        <v>44369</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1850</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <v>150</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>706.5</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>854.4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>834</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>450</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="3"/>
+        <v>147.89999999999998</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>

--- a/sputnik/personal/ee/3ee.xlsx
+++ b/sputnik/personal/ee/3ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 18.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,10 +642,55 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="A10" s="4">
+        <v>44463</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1950</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>496</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>522.79999999999995</v>
+      </c>
+      <c r="H10" s="8">
+        <v>522.79999999999995</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>460</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="5"/>
+        <v>26.8</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
@@ -662,11 +707,31 @@
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/3ee.xlsx
+++ b/sputnik/personal/ee/3ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\31.10.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -137,6 +145,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -420,7 +429,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,11 +518,11 @@
         <f>D4*E4</f>
         <v>673.5</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
         <v>770.7</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>767</v>
       </c>
     </row>
@@ -611,11 +620,11 @@
         <f t="shared" ref="F8:F9" si="3">D8*E8</f>
         <v>706.5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
         <v>854.4</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>834</v>
       </c>
     </row>
@@ -694,9 +703,22 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
+      <c r="G12" s="3">
+        <f>SUM(G2:G11)</f>
+        <v>2969.1499999999996</v>
+      </c>
+      <c r="H12" s="3">
+        <f>SUM(H2:H11)</f>
+        <v>2945.05</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <f>SUM(H12,-G12)</f>
+        <v>-24.099999999999454</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
